--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8269E37B-BC9A-4C1C-BFF8-A501E9679483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0032C9F-AF21-4CCE-AD25-69BBC6229B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A12B1A9D-45F7-4D1D-A9E8-243D7679F4E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63663F0F-5BC4-4DCF-A969-3318CD665538}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="549">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1594 +140,1552 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>95,3%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>9,72%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,35%</t>
+    <t>96,26%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A2454B-A095-4386-81E4-582D783840C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074D789B-D8EB-46E8-A9AC-319D01DED0FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3196,10 +3154,10 @@
         <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3208,13 +3166,13 @@
         <v>31959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3223,13 +3181,13 @@
         <v>48049</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,10 +3205,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>587</v>
@@ -3259,13 +3217,13 @@
         <v>606260</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1169</v>
@@ -3274,13 +3232,13 @@
         <v>1205197</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3294,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3348,13 +3306,13 @@
         <v>33303</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3363,13 +3321,13 @@
         <v>60042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3378,13 +3336,13 @@
         <v>93344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3357,13 @@
         <v>709474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>689</v>
@@ -3414,13 +3372,13 @@
         <v>723469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3429,13 +3387,13 @@
         <v>1432944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3461,13 @@
         <v>84552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -3518,13 +3476,13 @@
         <v>180138</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3533,13 +3491,13 @@
         <v>264690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,16 +3509,16 @@
         <v>3128</v>
       </c>
       <c r="D29" s="7">
-        <v>3190973</v>
+        <v>3190974</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>3120</v>
@@ -3569,28 +3527,28 @@
         <v>3199060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
       </c>
       <c r="N29" s="7">
-        <v>6390032</v>
+        <v>6390033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3560,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3632,7 +3590,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3646,7 +3604,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5744CB-5B10-4F5C-BD50-D51A43E73EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4880D9-0F36-46AD-8C16-B6C3B247550B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3687,7 +3645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3792,39 +3750,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,39 +3795,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,39 +3840,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3889,13 @@
         <v>18576</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3946,13 +3904,13 @@
         <v>44255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3961,13 +3919,13 @@
         <v>62831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3940,13 @@
         <v>486951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -3997,13 +3955,13 @@
         <v>478476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4012,13 +3970,13 @@
         <v>965427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4044,13 @@
         <v>12232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4101,13 +4059,13 @@
         <v>8194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4116,13 +4074,13 @@
         <v>20426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4095,13 @@
         <v>310884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4152,13 +4110,13 @@
         <v>332826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>617</v>
@@ -4167,13 +4125,13 @@
         <v>643710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4199,13 @@
         <v>26996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4256,13 +4214,13 @@
         <v>63518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -4271,13 +4229,13 @@
         <v>90514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4250,13 @@
         <v>639181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4307,13 +4265,13 @@
         <v>604768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1159</v>
@@ -4322,13 +4280,13 @@
         <v>1243949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4354,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4411,13 +4369,13 @@
         <v>34478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4426,13 +4384,13 @@
         <v>43070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4405,13 @@
         <v>204026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4462,13 +4420,13 @@
         <v>185113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4477,13 +4435,13 @@
         <v>389139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4509,13 @@
         <v>7004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4566,13 +4524,13 @@
         <v>15060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4581,13 +4539,13 @@
         <v>22064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4560,13 @@
         <v>266977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4617,13 +4575,13 @@
         <v>264080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4632,13 +4590,13 @@
         <v>531057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4664,13 @@
         <v>20176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4721,13 +4679,13 @@
         <v>28595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4736,13 +4694,13 @@
         <v>48770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4715,13 @@
         <v>642612</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -4772,13 +4730,13 @@
         <v>665258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -4787,13 +4745,13 @@
         <v>1307871</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4861,13 +4819,13 @@
         <v>21209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -4876,13 +4834,13 @@
         <v>58713</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -4891,13 +4849,13 @@
         <v>79921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4870,13 @@
         <v>755763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4927,13 +4885,13 @@
         <v>763957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>1399</v>
@@ -4942,13 +4900,13 @@
         <v>1519721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4974,13 @@
         <v>114785</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>235</v>
@@ -5031,13 +4989,13 @@
         <v>252812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -5046,13 +5004,13 @@
         <v>367597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5025,13 @@
         <v>3306394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H29" s="7">
         <v>3053</v>
@@ -5082,13 +5040,13 @@
         <v>3294480</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>6159</v>
@@ -5097,13 +5055,13 @@
         <v>6600873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5117,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7E143-B007-4560-82CF-8B2C8041E6B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEBCFD-6A41-4CAF-8B51-B5C70AFD46ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5200,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5307,13 +5265,13 @@
         <v>10580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5322,13 +5280,13 @@
         <v>19520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5337,13 +5295,13 @@
         <v>30100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5316,13 @@
         <v>283181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>259</v>
@@ -5373,13 +5331,13 @@
         <v>269183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5388,13 +5346,13 @@
         <v>552364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5420,13 @@
         <v>16075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5477,13 +5435,13 @@
         <v>37055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5492,13 +5450,13 @@
         <v>53130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5471,13 @@
         <v>486500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5528,10 +5486,10 @@
         <v>486029</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>325</v>
@@ -5546,10 +5504,10 @@
         <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +5593,10 @@
         <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5650,7 +5608,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>333</v>
@@ -5686,10 +5644,10 @@
         <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>638</v>
@@ -5704,7 +5662,7 @@
         <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5736,7 @@
         <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5787,10 +5745,10 @@
         <v>32794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>343</v>
@@ -5802,13 +5760,13 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5781,13 @@
         <v>354202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5838,13 +5796,13 @@
         <v>354489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>666</v>
@@ -5853,13 +5811,13 @@
         <v>708691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5885,13 @@
         <v>9421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5942,13 +5900,13 @@
         <v>28708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5957,13 +5915,13 @@
         <v>38129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5936,13 @@
         <v>201800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -5993,13 +5951,13 @@
         <v>189879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -6008,13 +5966,13 @@
         <v>391679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6040,13 @@
         <v>8314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6097,13 +6055,13 @@
         <v>14495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6112,13 +6070,13 @@
         <v>22809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6091,13 @@
         <v>254809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -6148,13 +6106,13 @@
         <v>258620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6163,13 +6121,13 @@
         <v>513429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6195,13 @@
         <v>22889</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -6252,13 +6210,13 @@
         <v>49355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6267,13 +6225,13 @@
         <v>72244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6246,13 @@
         <v>633669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -6303,13 +6261,13 @@
         <v>641939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>1163</v>
@@ -6318,13 +6276,13 @@
         <v>1275608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6338,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6392,13 +6350,13 @@
         <v>25187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6407,13 +6365,13 @@
         <v>69264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -6422,13 +6380,13 @@
         <v>94450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6401,13 @@
         <v>753396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -6458,13 +6416,13 @@
         <v>756903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="M26" s="7">
         <v>1421</v>
@@ -6473,13 +6431,13 @@
         <v>1510300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6505,13 @@
         <v>118165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -6562,13 +6520,13 @@
         <v>270657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -6577,13 +6535,13 @@
         <v>388822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6556,13 @@
         <v>3276185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>3092</v>
@@ -6613,13 +6571,13 @@
         <v>3273885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>6210</v>
@@ -6628,13 +6586,13 @@
         <v>6550070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,7 +6648,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6714,7 +6672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5124B8A-8735-45E1-9F90-12AE4016E78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404E5AA-DA3F-4EA8-9EFB-5510D81379C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6731,7 +6689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6838,13 +6796,13 @@
         <v>7757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6853,13 +6811,13 @@
         <v>10652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6868,13 +6826,13 @@
         <v>18409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6847,13 @@
         <v>252541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>515</v>
@@ -6904,13 +6862,13 @@
         <v>260751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>436</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6919,13 +6877,13 @@
         <v>513291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6951,13 @@
         <v>33244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -7008,13 +6966,13 @@
         <v>54615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -7023,13 +6981,13 @@
         <v>87859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7002,13 @@
         <v>484983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>454</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>637</v>
@@ -7059,13 +7017,13 @@
         <v>498601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -7074,13 +7032,13 @@
         <v>983584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7106,13 @@
         <v>14995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -7163,13 +7121,13 @@
         <v>29111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -7178,13 +7136,13 @@
         <v>44106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7157,13 @@
         <v>306725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>466</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7214,13 +7172,13 @@
         <v>344173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7229,13 +7187,13 @@
         <v>650897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7261,13 @@
         <v>8211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -7318,13 +7276,13 @@
         <v>16413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7333,13 +7291,13 @@
         <v>24624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7312,13 @@
         <v>314029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -7369,13 +7327,13 @@
         <v>411787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>856</v>
@@ -7384,13 +7342,13 @@
         <v>725816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7416,13 @@
         <v>5283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -7473,13 +7431,13 @@
         <v>24097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7488,13 +7446,13 @@
         <v>29380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7467,13 @@
         <v>191465</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -7524,13 +7482,13 @@
         <v>207806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -7539,13 +7497,13 @@
         <v>399271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7571,13 @@
         <v>14645</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -7628,13 +7586,13 @@
         <v>29926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7643,13 +7601,13 @@
         <v>44571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>145</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7622,13 @@
         <v>262578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>400</v>
@@ -7679,13 +7637,13 @@
         <v>245696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7694,13 +7652,13 @@
         <v>508274</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7726,13 @@
         <v>24316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7783,13 +7741,13 @@
         <v>64855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7798,13 +7756,13 @@
         <v>89171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7777,13 @@
         <v>603438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="H23" s="7">
         <v>864</v>
@@ -7834,13 +7792,13 @@
         <v>738698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7849,13 +7807,13 @@
         <v>1342137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,7 +7869,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7923,13 +7881,13 @@
         <v>42609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>520</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -7938,13 +7896,13 @@
         <v>95245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
@@ -7953,13 +7911,13 @@
         <v>137854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>537</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +7932,13 @@
         <v>816819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>540</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>936</v>
@@ -7989,13 +7947,13 @@
         <v>769786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -8004,13 +7962,13 @@
         <v>1586605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>546</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8036,13 @@
         <v>151061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7">
         <v>511</v>
@@ -8093,13 +8051,13 @@
         <v>324914</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -8108,13 +8066,13 @@
         <v>475975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,16 +8084,16 @@
         <v>3207</v>
       </c>
       <c r="D29" s="7">
-        <v>3232575</v>
+        <v>3232576</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>4847</v>
@@ -8144,13 +8102,13 @@
         <v>3477298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M29" s="7">
         <v>8054</v>
@@ -8159,13 +8117,13 @@
         <v>6709874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,7 +8135,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8221,7 +8179,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0032C9F-AF21-4CCE-AD25-69BBC6229B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761645B4-A07A-456C-AACE-AB216ECF654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63663F0F-5BC4-4DCF-A969-3318CD665538}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED7B8D4-7840-4B74-9BE2-FBCAF51AA180}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="573">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1549 +77,1621 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
   </si>
   <si>
     <t>96,26%</t>
@@ -2097,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074D789B-D8EB-46E8-A9AC-319D01DED0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50656B6A-D26B-4D00-B881-30CCA47368BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2704,10 +2776,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2716,13 +2788,13 @@
         <v>19112</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2809,13 @@
         <v>354140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -2752,13 +2824,13 @@
         <v>356875</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2767,13 +2839,13 @@
         <v>711015</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2841,13 +2913,13 @@
         <v>4617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2856,13 +2928,13 @@
         <v>12194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2871,13 +2943,13 @@
         <v>16810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2964,13 @@
         <v>198691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -2907,13 +2979,13 @@
         <v>195474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -2922,13 +2994,13 @@
         <v>394166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +3056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2996,13 +3068,13 @@
         <v>1892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3011,13 +3083,13 @@
         <v>9164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3026,13 +3098,13 @@
         <v>11056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,10 +3119,10 @@
         <v>268919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>65</v>
@@ -3062,13 +3134,13 @@
         <v>268980</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3077,13 +3149,13 @@
         <v>537899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3211,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3151,13 +3223,13 @@
         <v>16090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3166,13 +3238,13 @@
         <v>31959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3181,13 +3253,13 @@
         <v>48049</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3274,13 @@
         <v>598937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>587</v>
@@ -3217,13 +3289,13 @@
         <v>606260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1169</v>
@@ -3324,10 +3396,10 @@
         <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3336,13 +3408,13 @@
         <v>93344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3429,13 @@
         <v>709474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>689</v>
@@ -3372,13 +3444,13 @@
         <v>723469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3387,13 +3459,13 @@
         <v>1432944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3533,13 @@
         <v>84552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -3476,13 +3548,13 @@
         <v>180138</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3491,10 +3563,10 @@
         <v>264690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>138</v>
@@ -3509,16 +3581,16 @@
         <v>3128</v>
       </c>
       <c r="D29" s="7">
-        <v>3190974</v>
+        <v>3190973</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>3120</v>
@@ -3527,13 +3599,13 @@
         <v>3199060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
@@ -3542,13 +3614,13 @@
         <v>6390033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3632,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3604,7 +3676,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4880D9-0F36-46AD-8C16-B6C3B247550B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6EFCFF-2FCC-4D61-94DA-8BA76271101E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3750,39 +3822,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,39 +3867,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,39 +3912,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3961,13 @@
         <v>18576</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3904,13 +3976,13 @@
         <v>44255</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3919,13 +3991,13 @@
         <v>62831</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +4012,13 @@
         <v>486951</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -3955,13 +4027,13 @@
         <v>478476</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -3970,13 +4042,13 @@
         <v>965427</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4116,13 @@
         <v>12232</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4059,13 +4131,13 @@
         <v>8194</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4074,13 +4146,13 @@
         <v>20426</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4167,13 @@
         <v>310884</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4110,13 +4182,13 @@
         <v>332826</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>617</v>
@@ -4125,13 +4197,13 @@
         <v>643710</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4271,13 @@
         <v>26996</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4214,13 +4286,13 @@
         <v>63518</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -4229,7 +4301,7 @@
         <v>90514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>210</v>
@@ -4256,7 +4328,7 @@
         <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4265,13 +4337,13 @@
         <v>604768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1159</v>
@@ -4280,13 +4352,13 @@
         <v>1243949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4354,13 +4426,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4369,13 +4441,13 @@
         <v>34478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4384,13 +4456,13 @@
         <v>43070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4477,13 @@
         <v>204026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4420,13 +4492,13 @@
         <v>185113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4435,13 +4507,13 @@
         <v>389139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4569,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4509,13 +4581,13 @@
         <v>7004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4524,13 +4596,13 @@
         <v>15060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4539,13 +4611,13 @@
         <v>22064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4632,13 @@
         <v>266977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4575,13 +4647,13 @@
         <v>264080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4590,13 +4662,13 @@
         <v>531057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4724,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4664,13 +4736,13 @@
         <v>20176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4679,13 +4751,13 @@
         <v>28595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4694,13 +4766,13 @@
         <v>48770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4787,13 @@
         <v>642612</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -4730,13 +4802,13 @@
         <v>665258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -4745,13 +4817,13 @@
         <v>1307871</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4891,13 @@
         <v>21209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -4834,13 +4906,13 @@
         <v>58713</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -4849,13 +4921,13 @@
         <v>79921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4942,13 @@
         <v>755763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4885,13 +4957,13 @@
         <v>763957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1399</v>
@@ -4900,13 +4972,13 @@
         <v>1519721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +5046,13 @@
         <v>114785</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7">
         <v>235</v>
@@ -4989,13 +5061,13 @@
         <v>252812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -5004,13 +5076,13 @@
         <v>367597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5097,13 @@
         <v>3306394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H29" s="7">
         <v>3053</v>
@@ -5040,13 +5112,13 @@
         <v>3294480</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>6159</v>
@@ -5055,13 +5127,13 @@
         <v>6600873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5189,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEBCFD-6A41-4CAF-8B51-B5C70AFD46ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A333DAF-BEFB-40D3-BADE-82FCCD8B6A3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5158,7 +5230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5265,13 +5337,13 @@
         <v>10580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5280,13 +5352,13 @@
         <v>19520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5295,13 +5367,13 @@
         <v>30100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5388,13 @@
         <v>283181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>259</v>
@@ -5331,13 +5403,13 @@
         <v>269183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5346,13 +5418,13 @@
         <v>552364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5492,13 @@
         <v>16075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5435,13 +5507,13 @@
         <v>37055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5450,13 +5522,13 @@
         <v>53130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5543,13 @@
         <v>486500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5486,13 +5558,13 @@
         <v>486029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5501,13 +5573,13 @@
         <v>972529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5647,13 @@
         <v>9937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5590,13 +5662,13 @@
         <v>19466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5608,10 +5680,10 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5698,13 @@
         <v>308628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -5641,13 +5713,13 @@
         <v>316843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>638</v>
@@ -5659,10 +5731,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5802,13 @@
         <v>15762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5745,13 +5817,13 @@
         <v>32794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -5760,13 +5832,13 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5853,13 @@
         <v>354202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5796,13 +5868,13 @@
         <v>354489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>666</v>
@@ -5811,13 +5883,13 @@
         <v>708691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5945,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5885,13 +5957,13 @@
         <v>9421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5900,13 +5972,13 @@
         <v>28708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5915,13 +5987,13 @@
         <v>38129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +6008,13 @@
         <v>201800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -5951,13 +6023,13 @@
         <v>189879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -5966,13 +6038,13 @@
         <v>391679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6100,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6040,13 +6112,13 @@
         <v>8314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6055,13 +6127,13 @@
         <v>14495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6070,13 +6142,13 @@
         <v>22809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6163,13 @@
         <v>254809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -6106,13 +6178,13 @@
         <v>258620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6121,13 +6193,13 @@
         <v>513429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6255,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6195,13 +6267,13 @@
         <v>22889</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -6210,13 +6282,13 @@
         <v>49355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6225,13 +6297,13 @@
         <v>72244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6318,13 @@
         <v>633669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -6261,13 +6333,13 @@
         <v>641939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>1163</v>
@@ -6276,13 +6348,13 @@
         <v>1275608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6422,13 @@
         <v>25187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6365,13 +6437,13 @@
         <v>69264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -6380,13 +6452,13 @@
         <v>94450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6473,13 @@
         <v>753396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -6416,13 +6488,13 @@
         <v>756903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>1421</v>
@@ -6431,13 +6503,13 @@
         <v>1510300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6577,13 @@
         <v>118165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -6520,13 +6592,13 @@
         <v>270657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -6535,13 +6607,13 @@
         <v>388822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6628,13 @@
         <v>3276185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>3092</v>
@@ -6571,13 +6643,13 @@
         <v>3273885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>6210</v>
@@ -6586,13 +6658,13 @@
         <v>6550070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>278</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,7 +6720,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404E5AA-DA3F-4EA8-9EFB-5510D81379C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFFD46-2512-4F38-8FE0-6E113C8E2941}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6689,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6796,13 +6868,13 @@
         <v>7757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6811,13 +6883,13 @@
         <v>10652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6826,13 +6898,13 @@
         <v>18409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6919,13 @@
         <v>252541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>451</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>515</v>
@@ -6862,13 +6934,13 @@
         <v>260751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6877,13 +6949,13 @@
         <v>513291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +7023,13 @@
         <v>33244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -6966,13 +7038,13 @@
         <v>54615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -6981,13 +7053,13 @@
         <v>87859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7074,13 @@
         <v>484983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>637</v>
@@ -7017,13 +7089,13 @@
         <v>498601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -7032,13 +7104,13 @@
         <v>983584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7178,13 @@
         <v>14995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -7121,13 +7193,13 @@
         <v>29111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -7136,13 +7208,13 @@
         <v>44106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7229,13 @@
         <v>306725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7172,13 +7244,13 @@
         <v>344173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7187,13 +7259,13 @@
         <v>650897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7333,13 @@
         <v>8211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>467</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -7276,13 +7348,13 @@
         <v>16413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7291,13 +7363,13 @@
         <v>24624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7384,13 @@
         <v>314029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -7330,10 +7402,10 @@
         <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>856</v>
@@ -7342,13 +7414,13 @@
         <v>725816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7476,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7416,13 +7488,13 @@
         <v>5283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -7431,13 +7503,13 @@
         <v>24097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7446,13 +7518,13 @@
         <v>29380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7539,13 @@
         <v>191465</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -7482,13 +7554,13 @@
         <v>207806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -7497,13 +7569,13 @@
         <v>399271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,7 +7631,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7571,13 +7643,13 @@
         <v>14645</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -7586,13 +7658,13 @@
         <v>29926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7601,13 +7673,13 @@
         <v>44571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7694,13 @@
         <v>262578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>400</v>
@@ -7637,13 +7709,13 @@
         <v>245696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7652,13 +7724,13 @@
         <v>508274</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,7 +7786,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7726,13 +7798,13 @@
         <v>24316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7741,13 +7813,13 @@
         <v>64855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7756,13 +7828,13 @@
         <v>89171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7849,13 @@
         <v>603438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>864</v>
@@ -7792,13 +7864,13 @@
         <v>738698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7807,13 +7879,13 @@
         <v>1342137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>539</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7953,13 @@
         <v>42609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -7896,13 +7968,13 @@
         <v>95245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
@@ -7911,13 +7983,13 @@
         <v>137854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +8004,13 @@
         <v>816819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>550</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H26" s="7">
         <v>936</v>
@@ -7947,13 +8019,13 @@
         <v>769786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -7962,13 +8034,13 @@
         <v>1586605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8108,13 @@
         <v>151061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="H28" s="7">
         <v>511</v>
@@ -8051,13 +8123,13 @@
         <v>324914</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -8066,13 +8138,13 @@
         <v>475975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8159,13 @@
         <v>3232576</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
         <v>4847</v>
@@ -8102,13 +8174,13 @@
         <v>3477298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="M29" s="7">
         <v>8054</v>
@@ -8117,13 +8189,13 @@
         <v>6709874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,7 +8251,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{761645B4-A07A-456C-AACE-AB216ECF654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D444AC-6BFE-42D0-975F-E63D89A8B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED7B8D4-7840-4B74-9BE2-FBCAF51AA180}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC1B3BC1-2B86-4B99-846B-3F1B81CFB3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="563">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -80,1684 +80,1654 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50656B6A-D26B-4D00-B881-30CCA47368BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D172E-C892-4D9B-8655-78338899C602}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2776,10 +2746,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2788,13 +2758,13 @@
         <v>19112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2779,13 @@
         <v>354140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -2824,13 +2794,13 @@
         <v>356875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2839,13 +2809,13 @@
         <v>711015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2913,13 +2883,13 @@
         <v>4617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2928,13 +2898,13 @@
         <v>12194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2943,13 +2913,13 @@
         <v>16810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2934,13 @@
         <v>198691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -2979,13 +2949,13 @@
         <v>195474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -2994,13 +2964,13 @@
         <v>394166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3068,13 +3038,13 @@
         <v>1892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3083,13 +3053,13 @@
         <v>9164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3098,13 +3068,13 @@
         <v>11056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3089,10 @@
         <v>268919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>65</v>
@@ -3134,13 +3104,13 @@
         <v>268980</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3149,13 +3119,13 @@
         <v>537899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3181,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3223,13 +3193,13 @@
         <v>16090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3238,13 +3208,13 @@
         <v>31959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3253,13 +3223,13 @@
         <v>48049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3244,13 @@
         <v>598937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>587</v>
@@ -3289,13 +3259,13 @@
         <v>606260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1169</v>
@@ -3304,13 +3274,13 @@
         <v>1205197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3348,13 @@
         <v>33303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3393,13 +3363,13 @@
         <v>60042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3408,13 +3378,13 @@
         <v>93344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3399,13 @@
         <v>709474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>689</v>
@@ -3444,13 +3414,13 @@
         <v>723469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3459,13 +3429,13 @@
         <v>1432944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3503,13 @@
         <v>84552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -3548,13 +3518,13 @@
         <v>180138</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3563,13 +3533,13 @@
         <v>264690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3554,13 @@
         <v>3190973</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3120</v>
@@ -3599,28 +3569,28 @@
         <v>3199060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
       </c>
       <c r="N29" s="7">
-        <v>6390033</v>
+        <v>6390032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3632,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3676,7 +3646,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6EFCFF-2FCC-4D61-94DA-8BA76271101E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33B5AE2-7708-41EB-9833-B075EB2ADF3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3822,39 +3792,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,39 +3837,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,39 +3882,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3931,13 @@
         <v>18576</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3976,13 +3946,13 @@
         <v>44255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3991,13 +3961,13 @@
         <v>62831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3982,13 @@
         <v>486951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -4027,13 +3997,13 @@
         <v>478476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4042,13 +4012,13 @@
         <v>965427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4086,13 @@
         <v>12232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4131,13 +4101,13 @@
         <v>8194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4146,13 +4116,13 @@
         <v>20426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4137,13 @@
         <v>310884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4182,13 +4152,13 @@
         <v>332826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>617</v>
@@ -4197,13 +4167,13 @@
         <v>643710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4241,13 @@
         <v>26996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4286,13 +4256,13 @@
         <v>63518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -4301,13 +4271,13 @@
         <v>90514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4292,13 @@
         <v>639181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4337,13 +4307,13 @@
         <v>604768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1159</v>
@@ -4352,13 +4322,13 @@
         <v>1243949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4384,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4426,13 +4396,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4441,13 +4411,13 @@
         <v>34478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4456,13 +4426,13 @@
         <v>43070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4447,13 @@
         <v>204026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4492,13 +4462,13 @@
         <v>185113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4507,13 +4477,13 @@
         <v>389139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4539,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4581,13 +4551,13 @@
         <v>7004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4596,13 +4566,13 @@
         <v>15060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4611,13 +4581,13 @@
         <v>22064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4602,13 @@
         <v>266977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4647,13 +4617,13 @@
         <v>264080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4662,13 +4632,13 @@
         <v>531057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4694,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4736,13 +4706,13 @@
         <v>20176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4751,13 +4721,13 @@
         <v>28595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4766,13 +4736,13 @@
         <v>48770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4757,13 @@
         <v>642612</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -4802,13 +4772,13 @@
         <v>665258</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -4817,13 +4787,13 @@
         <v>1307871</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4849,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4891,13 +4861,13 @@
         <v>21209</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -4906,13 +4876,13 @@
         <v>58713</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -4921,13 +4891,13 @@
         <v>79921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4912,13 @@
         <v>755763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4957,13 +4927,13 @@
         <v>763957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>1399</v>
@@ -4972,13 +4942,13 @@
         <v>1519721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5016,13 @@
         <v>114785</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>235</v>
@@ -5061,13 +5031,13 @@
         <v>252812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -5076,13 +5046,13 @@
         <v>367597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5067,13 @@
         <v>3306394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>3053</v>
@@ -5112,13 +5082,13 @@
         <v>3294480</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>6159</v>
@@ -5127,13 +5097,13 @@
         <v>6600873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,7 +5159,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A333DAF-BEFB-40D3-BADE-82FCCD8B6A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F160FC-37D0-4B8D-9513-2C449BB335C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5337,13 +5307,13 @@
         <v>10580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5352,13 +5322,13 @@
         <v>19520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5367,13 +5337,13 @@
         <v>30100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5358,13 @@
         <v>283181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>259</v>
@@ -5403,13 +5373,13 @@
         <v>269183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5418,13 +5388,13 @@
         <v>552364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5462,13 @@
         <v>16075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5507,13 +5477,13 @@
         <v>37055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5522,13 +5492,13 @@
         <v>53130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5513,13 @@
         <v>486500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5558,13 +5528,13 @@
         <v>486029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5573,13 +5543,13 @@
         <v>972529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5617,13 @@
         <v>9937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5662,13 +5632,13 @@
         <v>19466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5680,10 +5650,10 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5668,13 @@
         <v>308628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -5713,13 +5683,13 @@
         <v>316843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>638</v>
@@ -5731,10 +5701,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5772,13 @@
         <v>15762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5817,13 +5787,13 @@
         <v>32794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -5832,13 +5802,13 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5823,13 @@
         <v>354202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5868,13 +5838,13 @@
         <v>354489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>666</v>
@@ -5883,13 +5853,13 @@
         <v>708691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5915,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5957,13 +5927,13 @@
         <v>9421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5972,13 +5942,13 @@
         <v>28708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5987,13 +5957,13 @@
         <v>38129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5978,13 @@
         <v>201800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6023,13 +5993,13 @@
         <v>189879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -6038,13 +6008,13 @@
         <v>391679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6070,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6112,13 +6082,13 @@
         <v>8314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6127,13 +6097,13 @@
         <v>14495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6142,13 +6112,13 @@
         <v>22809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6133,13 @@
         <v>254809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -6178,13 +6148,13 @@
         <v>258620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6193,13 +6163,13 @@
         <v>513429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,7 +6225,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6267,13 +6237,13 @@
         <v>22889</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -6282,13 +6252,13 @@
         <v>49355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6297,13 +6267,13 @@
         <v>72244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6288,13 @@
         <v>633669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>407</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -6333,13 +6303,13 @@
         <v>641939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
         <v>1163</v>
@@ -6348,13 +6318,13 @@
         <v>1275608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6380,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6422,13 +6392,13 @@
         <v>25187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6437,13 +6407,13 @@
         <v>69264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -6452,13 +6422,13 @@
         <v>94450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6443,13 @@
         <v>753396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -6488,13 +6458,13 @@
         <v>756903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>1421</v>
@@ -6503,13 +6473,13 @@
         <v>1510300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6547,13 @@
         <v>118165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -6592,13 +6562,13 @@
         <v>270657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>430</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -6607,13 +6577,13 @@
         <v>388822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6598,13 @@
         <v>3276185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>3092</v>
@@ -6643,13 +6613,13 @@
         <v>3273885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>6210</v>
@@ -6658,13 +6628,13 @@
         <v>6550070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,7 +6690,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFFD46-2512-4F38-8FE0-6E113C8E2941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5385F666-A24D-4270-8E78-3B562401B62F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6761,7 +6731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6868,13 +6838,13 @@
         <v>7757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6883,13 +6853,13 @@
         <v>10652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6898,13 +6868,13 @@
         <v>18409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6889,13 @@
         <v>252541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>515</v>
@@ -6934,13 +6904,13 @@
         <v>260751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6949,13 +6919,13 @@
         <v>513291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +6993,13 @@
         <v>33244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -7038,13 +7008,13 @@
         <v>54615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -7053,13 +7023,13 @@
         <v>87859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7044,13 @@
         <v>484983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>637</v>
@@ -7089,13 +7059,13 @@
         <v>498601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -7104,13 +7074,13 @@
         <v>983584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>471</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +7148,13 @@
         <v>14995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -7193,13 +7163,13 @@
         <v>29111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -7208,13 +7178,13 @@
         <v>44106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7199,13 @@
         <v>306725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>466</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
@@ -7244,13 +7214,13 @@
         <v>344173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>484</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7259,13 +7229,13 @@
         <v>650897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7303,13 @@
         <v>8211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -7348,13 +7318,13 @@
         <v>16413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7363,13 +7333,13 @@
         <v>24624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7354,13 @@
         <v>314029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -7399,13 +7369,13 @@
         <v>411787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>856</v>
@@ -7414,13 +7384,13 @@
         <v>725816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,7 +7446,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7488,13 +7458,13 @@
         <v>5283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -7503,13 +7473,13 @@
         <v>24097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7518,13 +7488,13 @@
         <v>29380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7509,13 @@
         <v>191465</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -7554,13 +7524,13 @@
         <v>207806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -7569,13 +7539,13 @@
         <v>399271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,7 +7601,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7643,13 +7613,13 @@
         <v>14645</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -7658,13 +7628,13 @@
         <v>29926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7673,13 +7643,13 @@
         <v>44571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7664,13 @@
         <v>262578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>400</v>
@@ -7709,13 +7679,13 @@
         <v>245696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7724,13 +7694,13 @@
         <v>508274</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7756,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7798,13 +7768,13 @@
         <v>24316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7813,13 +7783,13 @@
         <v>64855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7828,13 +7798,13 @@
         <v>89171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7819,13 @@
         <v>603438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
         <v>864</v>
@@ -7864,13 +7834,13 @@
         <v>738698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7879,13 +7849,13 @@
         <v>1342137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,7 +7911,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7953,13 +7923,13 @@
         <v>42609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -7968,13 +7938,13 @@
         <v>95245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
@@ -7983,13 +7953,13 @@
         <v>137854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,13 +7974,13 @@
         <v>816819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>936</v>
@@ -8019,13 +7989,13 @@
         <v>769786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -8034,13 +8004,13 @@
         <v>1586605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8078,13 @@
         <v>151061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
         <v>511</v>
@@ -8123,13 +8093,13 @@
         <v>324914</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -8138,13 +8108,13 @@
         <v>475975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,16 +8126,16 @@
         <v>3207</v>
       </c>
       <c r="D29" s="7">
-        <v>3232576</v>
+        <v>3232575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>4847</v>
@@ -8174,13 +8144,13 @@
         <v>3477298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M29" s="7">
         <v>8054</v>
@@ -8189,13 +8159,13 @@
         <v>6709874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,7 +8177,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8251,7 +8221,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D444AC-6BFE-42D0-975F-E63D89A8B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECB9BDB-82DC-4DC0-A1F0-FCCED978A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC1B3BC1-2B86-4B99-846B-3F1B81CFB3B6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5F74AF8-FB38-4F6C-8CAB-FFE587ED3C49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="576">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -674,354 +725,348 @@
     <t>98,14%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
     <t>95,98%</t>
   </si>
   <si>
@@ -1334,169 +1379,175 @@
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,24%</t>
@@ -1505,22 +1556,22 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>94,47%</t>
@@ -1529,205 +1580,193 @@
     <t>98,76%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D172E-C892-4D9B-8655-78338899C602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFCA0D9-D09F-4A27-BBBF-286C29493FB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3566,7 +3605,7 @@
         <v>3120</v>
       </c>
       <c r="I29" s="7">
-        <v>3199060</v>
+        <v>3199059</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3617,7 +3656,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3670,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33B5AE2-7708-41EB-9833-B075EB2ADF3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD6F21C-19F4-4042-9ACE-79CA50349EA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3788,43 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18282</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>23769</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42051</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,43 +3878,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="D5" s="7">
+        <v>273913</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="I5" s="7">
+        <v>256543</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>491</v>
+      </c>
+      <c r="N5" s="7">
+        <v>530455</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,43 +3929,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>292195</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>280312</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N6" s="7">
+        <v>572506</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3988,7 @@
         <v>18576</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>113</v>
@@ -3946,13 +4003,13 @@
         <v>44255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3961,13 +4018,13 @@
         <v>62831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,7 +4039,7 @@
         <v>486951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>105</v>
@@ -3997,13 +4054,13 @@
         <v>478476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4012,13 +4069,13 @@
         <v>965427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4143,13 @@
         <v>12232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4101,13 +4158,13 @@
         <v>8194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4116,13 +4173,13 @@
         <v>20426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4194,13 @@
         <v>310884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4152,13 +4209,13 @@
         <v>332826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>617</v>
@@ -4167,13 +4224,13 @@
         <v>643710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +4292,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>26996</v>
+        <v>8715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>63518</v>
+        <v>39749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>90514</v>
+        <v>48463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4343,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>600</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>639181</v>
+        <v>365267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>559</v>
+        <v>331</v>
       </c>
       <c r="I14" s="7">
-        <v>604768</v>
+        <v>348225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>1159</v>
+        <v>668</v>
       </c>
       <c r="N14" s="7">
-        <v>1243949</v>
+        <v>713493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666177</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4352,10 +4409,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>668286</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4367,10 +4424,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1243</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1334463</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4396,13 +4453,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4411,13 +4468,13 @@
         <v>34478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4429,10 +4486,10 @@
         <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,10 +4504,10 @@
         <v>204026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>60</v>
@@ -4462,13 +4519,13 @@
         <v>185113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4480,10 +4537,10 @@
         <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4608,13 @@
         <v>7004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4566,13 +4623,13 @@
         <v>15060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4581,10 +4638,10 @@
         <v>22064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>146</v>
@@ -4602,13 +4659,13 @@
         <v>266977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4617,13 +4674,13 @@
         <v>264080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4632,13 +4689,13 @@
         <v>531057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4763,13 @@
         <v>20176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4724,10 +4781,10 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4736,13 +4793,13 @@
         <v>48770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,10 +4814,10 @@
         <v>642612</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>60</v>
@@ -4775,10 +4832,10 @@
         <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -4787,10 +4844,10 @@
         <v>1307871</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>167</v>
@@ -4861,13 +4918,13 @@
         <v>21209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -4876,13 +4933,13 @@
         <v>58713</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -4891,13 +4948,13 @@
         <v>79921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4969,13 @@
         <v>755763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4927,13 +4984,13 @@
         <v>763957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1399</v>
@@ -4942,13 +4999,13 @@
         <v>1519721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5073,13 @@
         <v>114785</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>235</v>
@@ -5031,13 +5088,13 @@
         <v>252812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -5046,13 +5103,13 @@
         <v>367597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5124,13 @@
         <v>3306394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>3053</v>
@@ -5082,28 +5139,28 @@
         <v>3294480</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>6159</v>
       </c>
       <c r="N29" s="7">
-        <v>6600873</v>
+        <v>6600874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,7 +5202,7 @@
         <v>6491</v>
       </c>
       <c r="N30" s="7">
-        <v>6968470</v>
+        <v>6968471</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5183,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F160FC-37D0-4B8D-9513-2C449BB335C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1479A330-C9DD-4974-924A-027C1C13231D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5200,7 +5257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5307,10 +5364,10 @@
         <v>10580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>142</v>
@@ -5322,13 +5379,13 @@
         <v>19520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5337,13 +5394,13 @@
         <v>30100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5415,13 @@
         <v>283181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>259</v>
@@ -5373,13 +5430,13 @@
         <v>269183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5388,10 +5445,10 @@
         <v>552364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>49</v>
@@ -5465,10 +5522,10 @@
         <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5477,13 +5534,13 @@
         <v>37055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5492,13 +5549,13 @@
         <v>53130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,10 +5573,10 @@
         <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5528,13 +5585,13 @@
         <v>486029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5543,13 +5600,13 @@
         <v>972529</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5674,13 @@
         <v>9937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5632,13 +5689,13 @@
         <v>19466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5650,10 +5707,10 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5725,13 @@
         <v>308628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -5683,13 +5740,13 @@
         <v>316843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>638</v>
@@ -5701,10 +5758,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5829,13 @@
         <v>15762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5787,13 +5844,13 @@
         <v>32794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -5802,13 +5859,13 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5880,13 @@
         <v>354202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5838,13 +5895,13 @@
         <v>354489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>666</v>
@@ -5853,13 +5910,13 @@
         <v>708691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5984,13 @@
         <v>9421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5942,13 +5999,13 @@
         <v>28708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5957,13 +6014,13 @@
         <v>38129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,10 +6035,10 @@
         <v>201800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
@@ -5993,13 +6050,13 @@
         <v>189879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -6008,13 +6065,13 @@
         <v>391679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6139,13 @@
         <v>8314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6097,13 +6154,13 @@
         <v>14495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6112,13 +6169,13 @@
         <v>22809</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6190,13 @@
         <v>254809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -6148,13 +6205,13 @@
         <v>258620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6163,13 +6220,13 @@
         <v>513429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,10 +6297,10 @@
         <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -6252,13 +6309,13 @@
         <v>49355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6267,13 +6324,13 @@
         <v>72244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,10 +6348,10 @@
         <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>604</v>
@@ -6303,13 +6360,13 @@
         <v>641939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>1163</v>
@@ -6318,13 +6375,13 @@
         <v>1275608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6449,13 @@
         <v>25187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6407,13 +6464,13 @@
         <v>69264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -6422,13 +6479,13 @@
         <v>94450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6500,13 @@
         <v>753396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -6458,13 +6515,13 @@
         <v>756903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>1421</v>
@@ -6473,13 +6530,13 @@
         <v>1510300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6604,13 @@
         <v>118165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -6562,13 +6619,13 @@
         <v>270657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
@@ -6577,13 +6634,13 @@
         <v>388822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6655,13 @@
         <v>3276185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>3092</v>
@@ -6613,13 +6670,13 @@
         <v>3273885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>6210</v>
@@ -6628,13 +6685,13 @@
         <v>6550070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5385F666-A24D-4270-8E78-3B562401B62F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B17326-1F0A-4FE8-9D10-A9C61FE5D8B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6731,7 +6788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6835,46 +6892,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>7757</v>
+        <v>8777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>10652</v>
+        <v>11020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>18409</v>
+        <v>19797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,46 +6943,46 @@
         <v>321</v>
       </c>
       <c r="D5" s="7">
-        <v>252541</v>
+        <v>302666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>515</v>
       </c>
       <c r="I5" s="7">
-        <v>260751</v>
+        <v>278615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
       </c>
       <c r="N5" s="7">
-        <v>513291</v>
+        <v>581280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,7 +6994,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6952,7 +7009,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6967,7 +7024,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6990,46 +7047,46 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>33244</v>
+        <v>32024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>54615</v>
+        <v>50447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
       </c>
       <c r="N7" s="7">
-        <v>87859</v>
+        <v>82471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,46 +7098,46 @@
         <v>355</v>
       </c>
       <c r="D8" s="7">
-        <v>484983</v>
+        <v>485369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>454</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>637</v>
       </c>
       <c r="I8" s="7">
-        <v>498601</v>
+        <v>463278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
       </c>
       <c r="N8" s="7">
-        <v>983584</v>
+        <v>948647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>474</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,7 +7149,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7107,7 +7164,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7122,7 +7179,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7145,46 +7202,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>14995</v>
+        <v>14500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>29111</v>
+        <v>26887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>44106</v>
+        <v>41387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,46 +7253,46 @@
         <v>342</v>
       </c>
       <c r="D11" s="7">
-        <v>306725</v>
+        <v>301060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>466</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
       </c>
       <c r="I11" s="7">
-        <v>344173</v>
+        <v>322241</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>483</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
       </c>
       <c r="N11" s="7">
-        <v>650897</v>
+        <v>623301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,7 +7304,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7262,7 +7319,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7277,7 +7334,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7300,46 +7357,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8211</v>
+        <v>7824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>16413</v>
+        <v>14996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>24624</v>
+        <v>22820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,46 +7408,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>314029</v>
+        <v>304733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
       </c>
       <c r="I14" s="7">
-        <v>411787</v>
+        <v>460391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>856</v>
       </c>
       <c r="N14" s="7">
-        <v>725816</v>
+        <v>765124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,7 +7459,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7417,7 +7474,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7432,7 +7489,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7455,46 +7512,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5283</v>
+        <v>4790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>24097</v>
+        <v>21874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>29380</v>
+        <v>26665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,46 +7563,46 @@
         <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>191465</v>
+        <v>173952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
       </c>
       <c r="I17" s="7">
-        <v>207806</v>
+        <v>186782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
       </c>
       <c r="N17" s="7">
-        <v>399271</v>
+        <v>360733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,7 +7614,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7572,7 +7629,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7587,7 +7644,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7610,46 +7667,46 @@
         <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>14645</v>
+        <v>13948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>29926</v>
+        <v>27784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>44571</v>
+        <v>41732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>145</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,46 +7718,46 @@
         <v>349</v>
       </c>
       <c r="D20" s="7">
-        <v>262578</v>
+        <v>255688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>400</v>
       </c>
       <c r="I20" s="7">
-        <v>245696</v>
+        <v>229272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
       </c>
       <c r="N20" s="7">
-        <v>508274</v>
+        <v>484960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,7 +7769,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7727,7 +7784,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7742,7 +7799,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7765,46 +7822,46 @@
         <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>24316</v>
+        <v>23384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>64855</v>
+        <v>59236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
       </c>
       <c r="N22" s="7">
-        <v>89171</v>
+        <v>82621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,46 +7873,46 @@
         <v>572</v>
       </c>
       <c r="D23" s="7">
-        <v>603438</v>
+        <v>600895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="H23" s="7">
         <v>864</v>
       </c>
       <c r="I23" s="7">
-        <v>738698</v>
+        <v>789411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
       </c>
       <c r="N23" s="7">
-        <v>1342137</v>
+        <v>1390305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,7 +7924,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7882,7 +7939,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803553</v>
+        <v>848647</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7897,7 +7954,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1431308</v>
+        <v>1472926</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7920,46 +7977,46 @@
         <v>49</v>
       </c>
       <c r="D25" s="7">
-        <v>42609</v>
+        <v>36466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>548</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
       </c>
       <c r="I25" s="7">
-        <v>95245</v>
+        <v>78643</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>173</v>
       </c>
       <c r="N25" s="7">
-        <v>137854</v>
+        <v>115110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,46 +8028,46 @@
         <v>713</v>
       </c>
       <c r="D26" s="7">
-        <v>816819</v>
+        <v>892254</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>936</v>
       </c>
       <c r="I26" s="7">
-        <v>769786</v>
+        <v>636208</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
       </c>
       <c r="N26" s="7">
-        <v>1586605</v>
+        <v>1528462</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,7 +8079,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8037,7 +8094,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8052,7 +8109,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8075,46 +8132,46 @@
         <v>167</v>
       </c>
       <c r="D28" s="7">
-        <v>151061</v>
+        <v>141714</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>354</v>
+        <v>564</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="H28" s="7">
         <v>511</v>
       </c>
       <c r="I28" s="7">
-        <v>324914</v>
+        <v>290887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
       </c>
       <c r="N28" s="7">
-        <v>475975</v>
+        <v>432601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,46 +8183,46 @@
         <v>3207</v>
       </c>
       <c r="D29" s="7">
-        <v>3232575</v>
+        <v>3316616</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>570</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>4847</v>
       </c>
       <c r="I29" s="7">
-        <v>3477298</v>
+        <v>3366197</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="M29" s="7">
         <v>8054</v>
       </c>
       <c r="N29" s="7">
-        <v>6709874</v>
+        <v>6682813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,7 +8234,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8192,7 +8249,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802212</v>
+        <v>3657084</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8207,7 +8264,7 @@
         <v>8732</v>
       </c>
       <c r="N30" s="7">
-        <v>7185849</v>
+        <v>7115414</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
